--- a/reports/report_AC107_indicators.xlsx
+++ b/reports/report_AC107_indicators.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heberleinr/Documents/aspace_helpers/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1269DE3-63F9-1A4B-9896-61E29A63DB96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2482CA49-4A18-8844-8528-CC2520653DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15620" xr2:uid="{59DBA7AA-5B67-D04E-9178-DBE6DC7FEF56}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15620" activeTab="1" xr2:uid="{59DBA7AA-5B67-D04E-9178-DBE6DC7FEF56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="problems" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">problems!$G$2:$G$578</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="578">
   <si>
     <t>SVN</t>
   </si>
@@ -1741,13 +1745,31 @@
   </si>
   <si>
     <t>FAC15</t>
+  </si>
+  <si>
+    <t>2014\\n\\n2014</t>
+  </si>
+  <si>
+    <t>2014\\n2014</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>File not extant</t>
+  </si>
+  <si>
+    <t>Consolidated Run</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1789,13 +1811,26 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1810,7 +1845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1819,11 +1854,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2135,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF902621-794E-4B43-B190-A7DD95DDA2BB}">
   <dimension ref="A1:J574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -9037,4 +9089,7603 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DF80E5-D420-5C47-9629-4DFA07C16A67}">
+  <dimension ref="A2:AE578"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
+      <selection activeCell="G569" sqref="G569:G573"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="10"/>
+    <col min="6" max="6" width="31" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="12"/>
+    <col min="8" max="31" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B26">
+        <v>29</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B27">
+        <v>517</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B28">
+        <v>518</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="10">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B29">
+        <v>519</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B30">
+        <v>520</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B31">
+        <v>521</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="10">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B32">
+        <v>522</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B33">
+        <v>523</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="10">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B34">
+        <v>524</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B35">
+        <v>525</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B36">
+        <v>639</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B37">
+        <v>640</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="10">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B38">
+        <v>641</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B39">
+        <v>642</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B40">
+        <v>643</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B41">
+        <v>644</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B42">
+        <v>645</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B43">
+        <v>646</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="10">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B44">
+        <v>647</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B45">
+        <v>648</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B46">
+        <v>649</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="10">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B47">
+        <v>650</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="10">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B48">
+        <v>651</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="10">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B49">
+        <v>652</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B50">
+        <v>653</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B51">
+        <v>654</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B52">
+        <v>655</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="10">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B53">
+        <v>656</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="10">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B54">
+        <v>657</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B55">
+        <v>658</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="10">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B56">
+        <v>659</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="10">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B57">
+        <v>660</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="10">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B58">
+        <v>661</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B59">
+        <v>662</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="12">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B60">
+        <v>663</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="12">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B61">
+        <v>664</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="12">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B62">
+        <v>665</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="10">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B63">
+        <v>666</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="10">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B64">
+        <v>667</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B65">
+        <v>668</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="12">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B66">
+        <v>669</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="12">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B67">
+        <v>670</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="12">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B68">
+        <v>671</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="10">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B69">
+        <v>672</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="10">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B70">
+        <v>673</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="10">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B71">
+        <v>674</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="10">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B72">
+        <v>675</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="10">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B73">
+        <v>676</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="G73" s="10">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B74">
+        <v>677</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="12">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B75">
+        <v>678</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="12">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B76">
+        <v>679</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="12">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B77">
+        <v>680</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="12">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B78">
+        <v>681</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B79">
+        <v>682</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="12">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B80">
+        <v>683</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="12">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B81">
+        <v>684</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="12">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B82">
+        <v>685</v>
+      </c>
+      <c r="F82" s="11"/>
+      <c r="G82" s="12">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B83">
+        <v>686</v>
+      </c>
+      <c r="F83" s="11"/>
+      <c r="G83" s="10">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B84">
+        <v>687</v>
+      </c>
+      <c r="F84" s="11"/>
+      <c r="G84" s="10">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B85">
+        <v>688</v>
+      </c>
+      <c r="F85" s="11"/>
+      <c r="G85" s="10">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B86">
+        <v>689</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="10">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B87">
+        <v>690</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="10">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B88">
+        <v>691</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="10">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B89">
+        <v>692</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="12">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B90">
+        <v>693</v>
+      </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="12">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B91">
+        <v>694</v>
+      </c>
+      <c r="F91" s="11"/>
+      <c r="G91" s="10">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B92">
+        <v>695</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="10">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B93">
+        <v>696</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="10">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B94">
+        <v>697</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="10">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B95">
+        <v>698</v>
+      </c>
+      <c r="F95" s="11"/>
+      <c r="G95" s="10">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B96">
+        <v>699</v>
+      </c>
+      <c r="F96" s="11"/>
+      <c r="G96" s="10">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B97">
+        <v>700</v>
+      </c>
+      <c r="F97" s="11"/>
+      <c r="G97" s="10">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B98">
+        <v>701</v>
+      </c>
+      <c r="F98" s="11"/>
+      <c r="G98" s="10">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B99">
+        <v>702</v>
+      </c>
+      <c r="F99" s="11"/>
+      <c r="G99" s="10">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B100">
+        <v>703</v>
+      </c>
+      <c r="F100" s="11"/>
+      <c r="G100" s="10">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B101">
+        <v>704</v>
+      </c>
+      <c r="F101" s="11"/>
+      <c r="G101" s="10">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B102">
+        <v>705</v>
+      </c>
+      <c r="F102" s="11"/>
+      <c r="G102" s="10">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B103">
+        <v>706</v>
+      </c>
+      <c r="F103" s="11"/>
+      <c r="G103" s="10">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B104">
+        <v>707</v>
+      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="10">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B105">
+        <v>708</v>
+      </c>
+      <c r="F105" s="11"/>
+      <c r="G105" s="10">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B106">
+        <v>709</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="10">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B107">
+        <v>710</v>
+      </c>
+      <c r="F107" s="11"/>
+      <c r="G107" s="10">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B108">
+        <v>711</v>
+      </c>
+      <c r="F108" s="11"/>
+      <c r="G108" s="10">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B109">
+        <v>712</v>
+      </c>
+      <c r="F109" s="11"/>
+      <c r="G109" s="10">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B110">
+        <v>713</v>
+      </c>
+      <c r="F110" s="11"/>
+      <c r="G110" s="10">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B111">
+        <v>714</v>
+      </c>
+      <c r="F111" s="11"/>
+      <c r="G111" s="10">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B112">
+        <v>715</v>
+      </c>
+      <c r="F112" s="11"/>
+      <c r="G112" s="10">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B113">
+        <v>716</v>
+      </c>
+      <c r="F113" s="11"/>
+      <c r="G113" s="10">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B114">
+        <v>717</v>
+      </c>
+      <c r="F114" s="11"/>
+      <c r="G114" s="10">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B115">
+        <v>718</v>
+      </c>
+      <c r="F115" s="11"/>
+      <c r="G115" s="10">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A116" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B116">
+        <v>719</v>
+      </c>
+      <c r="F116" s="11"/>
+      <c r="G116" s="10">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B117">
+        <v>720</v>
+      </c>
+      <c r="F117" s="11"/>
+      <c r="G117" s="10">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B118">
+        <v>721</v>
+      </c>
+      <c r="F118" s="11"/>
+      <c r="G118" s="10">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A119" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B119">
+        <v>722</v>
+      </c>
+      <c r="F119" s="11"/>
+      <c r="G119" s="10">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A120" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B120">
+        <v>723</v>
+      </c>
+      <c r="F120" s="11"/>
+      <c r="G120" s="10">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B121">
+        <v>724</v>
+      </c>
+      <c r="F121" s="11"/>
+      <c r="G121" s="12">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B122">
+        <v>724</v>
+      </c>
+      <c r="F122" s="11"/>
+      <c r="G122" s="12">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A123" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B123">
+        <v>725</v>
+      </c>
+      <c r="F123" s="11"/>
+      <c r="G123" s="10">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B124">
+        <v>726</v>
+      </c>
+      <c r="F124" s="11"/>
+      <c r="G124" s="10">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B125">
+        <v>727</v>
+      </c>
+      <c r="F125" s="11"/>
+      <c r="G125" s="10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B126">
+        <v>728</v>
+      </c>
+      <c r="F126" s="11"/>
+      <c r="G126" s="10">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B127">
+        <v>729</v>
+      </c>
+      <c r="F127" s="11"/>
+      <c r="G127" s="10">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B128">
+        <v>730</v>
+      </c>
+      <c r="F128" s="11"/>
+      <c r="G128" s="10">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B129">
+        <v>731</v>
+      </c>
+      <c r="F129" s="11"/>
+      <c r="G129" s="10">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B130">
+        <v>732</v>
+      </c>
+      <c r="F130" s="11"/>
+      <c r="G130" s="10">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A131" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B131">
+        <v>733</v>
+      </c>
+      <c r="F131" s="11"/>
+      <c r="G131" s="10">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A132" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B132">
+        <v>734</v>
+      </c>
+      <c r="F132" s="11"/>
+      <c r="G132" s="10">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A133" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B133">
+        <v>735</v>
+      </c>
+      <c r="F133" s="11"/>
+      <c r="G133" s="10">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A134" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B134">
+        <v>736</v>
+      </c>
+      <c r="F134" s="11"/>
+      <c r="G134" s="10">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B135">
+        <v>737</v>
+      </c>
+      <c r="F135" s="11"/>
+      <c r="G135" s="10">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B136">
+        <v>738</v>
+      </c>
+      <c r="F136" s="11"/>
+      <c r="G136" s="10">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A137" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B137">
+        <v>739</v>
+      </c>
+      <c r="F137" s="11"/>
+      <c r="G137" s="10">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B138">
+        <v>740</v>
+      </c>
+      <c r="F138" s="11"/>
+      <c r="G138" s="10">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A139" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B139">
+        <v>741</v>
+      </c>
+      <c r="F139" s="11"/>
+      <c r="G139" s="10">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A140" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B140">
+        <v>742</v>
+      </c>
+      <c r="F140" s="11"/>
+      <c r="G140" s="10">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B141">
+        <v>743</v>
+      </c>
+      <c r="F141" s="11"/>
+      <c r="G141" s="12">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B142">
+        <v>744</v>
+      </c>
+      <c r="F142" s="11"/>
+      <c r="G142" s="12">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A143" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B143">
+        <v>745</v>
+      </c>
+      <c r="F143" s="11"/>
+      <c r="G143" s="10">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A144" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B144">
+        <v>746</v>
+      </c>
+      <c r="F144" s="11"/>
+      <c r="G144" s="10">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A145" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B145">
+        <v>747</v>
+      </c>
+      <c r="F145" s="11"/>
+      <c r="G145" s="12">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B146">
+        <v>748</v>
+      </c>
+      <c r="F146" s="11"/>
+      <c r="G146" s="12">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B147">
+        <v>748</v>
+      </c>
+      <c r="F147" s="11"/>
+      <c r="G147" s="10">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B148">
+        <v>749</v>
+      </c>
+      <c r="F148" s="11"/>
+      <c r="G148" s="10">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B149">
+        <v>749</v>
+      </c>
+      <c r="F149" s="11"/>
+      <c r="G149" s="10">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B150">
+        <v>750</v>
+      </c>
+      <c r="F150" s="11"/>
+      <c r="G150" s="10">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B151">
+        <v>751</v>
+      </c>
+      <c r="F151" s="11"/>
+      <c r="G151" s="10">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B152">
+        <v>752</v>
+      </c>
+      <c r="F152" s="11"/>
+      <c r="G152" s="10">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B153">
+        <v>753</v>
+      </c>
+      <c r="F153" s="11"/>
+      <c r="G153" s="10">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B154">
+        <v>754</v>
+      </c>
+      <c r="F154" s="11"/>
+      <c r="G154" s="10">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B155">
+        <v>755</v>
+      </c>
+      <c r="F155" s="11"/>
+      <c r="G155" s="10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B156">
+        <v>756</v>
+      </c>
+      <c r="F156" s="11"/>
+      <c r="G156" s="10">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B157">
+        <v>757</v>
+      </c>
+      <c r="F157" s="11"/>
+      <c r="G157" s="10">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B158">
+        <v>758</v>
+      </c>
+      <c r="F158" s="11"/>
+      <c r="G158" s="10">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A159" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B159">
+        <v>759</v>
+      </c>
+      <c r="F159" s="11"/>
+      <c r="G159" s="10">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A160" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B160">
+        <v>760</v>
+      </c>
+      <c r="F160" s="11"/>
+      <c r="G160" s="10">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A161" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B161">
+        <v>761</v>
+      </c>
+      <c r="F161" s="11"/>
+      <c r="G161" s="10">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A162" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B162">
+        <v>762</v>
+      </c>
+      <c r="F162" s="11"/>
+      <c r="G162" s="10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A163" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B163">
+        <v>763</v>
+      </c>
+      <c r="F163" s="11"/>
+      <c r="G163" s="10">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B164">
+        <v>764</v>
+      </c>
+      <c r="F164" s="11"/>
+      <c r="G164" s="10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B165">
+        <v>765</v>
+      </c>
+      <c r="F165" s="11"/>
+      <c r="G165" s="10">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B166">
+        <v>766</v>
+      </c>
+      <c r="F166" s="11"/>
+      <c r="G166" s="10">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A167" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B167">
+        <v>767</v>
+      </c>
+      <c r="F167" s="11"/>
+      <c r="G167" s="10">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A168" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B168">
+        <v>768</v>
+      </c>
+      <c r="F168" s="11"/>
+      <c r="G168" s="10">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A169" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B169">
+        <v>769</v>
+      </c>
+      <c r="F169" s="11"/>
+      <c r="G169" s="10">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A170" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B170">
+        <v>770</v>
+      </c>
+      <c r="F170" s="11"/>
+      <c r="G170" s="10">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A171" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B171">
+        <v>771</v>
+      </c>
+      <c r="F171" s="11"/>
+      <c r="G171" s="10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A172" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B172">
+        <v>772</v>
+      </c>
+      <c r="F172" s="11"/>
+      <c r="G172" s="10">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A173" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B173">
+        <v>773</v>
+      </c>
+      <c r="F173" s="11"/>
+      <c r="G173" s="10">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A174" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B174">
+        <v>774</v>
+      </c>
+      <c r="F174" s="11"/>
+      <c r="G174" s="10">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A175" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B175">
+        <v>775</v>
+      </c>
+      <c r="F175" s="11"/>
+      <c r="G175" s="10">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B176">
+        <v>776</v>
+      </c>
+      <c r="F176" s="11"/>
+      <c r="G176" s="10">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A177" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B177">
+        <v>777</v>
+      </c>
+      <c r="F177" s="11"/>
+      <c r="G177" s="10">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A178" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B178">
+        <v>778</v>
+      </c>
+      <c r="F178" s="11"/>
+      <c r="G178" s="10">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A179" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B179">
+        <v>779</v>
+      </c>
+      <c r="F179" s="11"/>
+      <c r="G179" s="10">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A180" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B180">
+        <v>780</v>
+      </c>
+      <c r="F180" s="11"/>
+      <c r="G180" s="10">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A181" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B181">
+        <v>781</v>
+      </c>
+      <c r="F181" s="11"/>
+      <c r="G181" s="10">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B182">
+        <v>782</v>
+      </c>
+      <c r="F182" s="11"/>
+      <c r="G182" s="10">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A183" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B183">
+        <v>783</v>
+      </c>
+      <c r="F183" s="11"/>
+      <c r="G183" s="10">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A184" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B184">
+        <v>784</v>
+      </c>
+      <c r="F184" s="11"/>
+      <c r="G184" s="10">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A185" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B185">
+        <v>785</v>
+      </c>
+      <c r="F185" s="11"/>
+      <c r="G185" s="10">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A186" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B186">
+        <v>786</v>
+      </c>
+      <c r="F186" s="11"/>
+      <c r="G186" s="12">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A187" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B187">
+        <v>787</v>
+      </c>
+      <c r="F187" s="11"/>
+      <c r="G187" s="12">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A188" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B188">
+        <v>788</v>
+      </c>
+      <c r="F188" s="11"/>
+      <c r="G188" s="13">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A189" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B189">
+        <v>789</v>
+      </c>
+      <c r="F189" s="11"/>
+      <c r="G189" s="10">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A190" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B190">
+        <v>790</v>
+      </c>
+      <c r="F190" s="11"/>
+      <c r="G190" s="10">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A191" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B191">
+        <v>791</v>
+      </c>
+      <c r="F191" s="11"/>
+      <c r="G191" s="10">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A192" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B192">
+        <v>792</v>
+      </c>
+      <c r="F192" s="11"/>
+      <c r="G192" s="10">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A193" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B193">
+        <v>793</v>
+      </c>
+      <c r="F193" s="11"/>
+      <c r="G193" s="10">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A194" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B194">
+        <v>794</v>
+      </c>
+      <c r="F194" s="11"/>
+      <c r="G194" s="10">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A195" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B195">
+        <v>795</v>
+      </c>
+      <c r="F195" s="11"/>
+      <c r="G195" s="10">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A196" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B196">
+        <v>796</v>
+      </c>
+      <c r="F196" s="11"/>
+      <c r="G196" s="10">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A197" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B197">
+        <v>797</v>
+      </c>
+      <c r="F197" s="11"/>
+      <c r="G197" s="10">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A198" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B198">
+        <v>798</v>
+      </c>
+      <c r="F198" s="11"/>
+      <c r="G198" s="10">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A199" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B199">
+        <v>799</v>
+      </c>
+      <c r="F199" s="11"/>
+      <c r="G199" s="10">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A200" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B200">
+        <v>800</v>
+      </c>
+      <c r="F200" s="11"/>
+      <c r="G200" s="10">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A201" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B201">
+        <v>801</v>
+      </c>
+      <c r="F201" s="11"/>
+      <c r="G201" s="10">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A202" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B202">
+        <v>801</v>
+      </c>
+      <c r="F202" s="11"/>
+      <c r="G202" s="10">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A203" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B203">
+        <v>801</v>
+      </c>
+      <c r="F203" s="11"/>
+      <c r="G203" s="10">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A204" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B204">
+        <v>802</v>
+      </c>
+      <c r="F204" s="11"/>
+      <c r="G204" s="10">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A205" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B205">
+        <v>803</v>
+      </c>
+      <c r="F205" s="11"/>
+      <c r="G205" s="10">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A206" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B206">
+        <v>804</v>
+      </c>
+      <c r="F206" s="11"/>
+      <c r="G206" s="10">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A207" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B207">
+        <v>805</v>
+      </c>
+      <c r="F207" s="11"/>
+      <c r="G207" s="10">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A208" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B208">
+        <v>806</v>
+      </c>
+      <c r="F208" s="11"/>
+      <c r="G208" s="10">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A209" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B209">
+        <v>807</v>
+      </c>
+      <c r="F209" s="11"/>
+      <c r="G209" s="10">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A210" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B210">
+        <v>808</v>
+      </c>
+      <c r="F210" s="11"/>
+      <c r="G210" s="10">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A211" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B211">
+        <v>809</v>
+      </c>
+      <c r="F211" s="11"/>
+      <c r="G211" s="10">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A212" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B212">
+        <v>810</v>
+      </c>
+      <c r="F212" s="11"/>
+      <c r="G212" s="12">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A213" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B213">
+        <v>811</v>
+      </c>
+      <c r="F213" s="11"/>
+      <c r="G213" s="12">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A214" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B214">
+        <v>812</v>
+      </c>
+      <c r="F214" s="11"/>
+      <c r="G214" s="12">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A215" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B215">
+        <v>813</v>
+      </c>
+      <c r="F215" s="11"/>
+      <c r="G215" s="12">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A216" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B216">
+        <v>814</v>
+      </c>
+      <c r="F216" s="11"/>
+      <c r="G216" s="13">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A217" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B217">
+        <v>814</v>
+      </c>
+      <c r="F217" s="11"/>
+      <c r="G217" s="12">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A218" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B218">
+        <v>814</v>
+      </c>
+      <c r="F218" s="11"/>
+      <c r="G218" s="13">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A219" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B219">
+        <v>814</v>
+      </c>
+      <c r="F219" s="11"/>
+      <c r="G219" s="12">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A220" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B220">
+        <v>814</v>
+      </c>
+      <c r="F220" s="11"/>
+      <c r="G220" s="13">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A221" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B221">
+        <v>815</v>
+      </c>
+      <c r="F221" s="11"/>
+      <c r="G221" s="10">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A222" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B222">
+        <v>816</v>
+      </c>
+      <c r="F222" s="11"/>
+      <c r="G222" s="10">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A223" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B223">
+        <v>817</v>
+      </c>
+      <c r="F223" s="11"/>
+      <c r="G223" s="10">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A224" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B224">
+        <v>818</v>
+      </c>
+      <c r="F224" s="11"/>
+      <c r="G224" s="10">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A225" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B225">
+        <v>819</v>
+      </c>
+      <c r="F225" s="11"/>
+      <c r="G225" s="10">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A226" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B226">
+        <v>820</v>
+      </c>
+      <c r="F226" s="11"/>
+      <c r="G226" s="10">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A227" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B227">
+        <v>821</v>
+      </c>
+      <c r="F227" s="11"/>
+      <c r="G227" s="10">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A228" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B228">
+        <v>822</v>
+      </c>
+      <c r="F228" s="11"/>
+      <c r="G228" s="10">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A229" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B229">
+        <v>823</v>
+      </c>
+      <c r="F229" s="11"/>
+      <c r="G229" s="10">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A230" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B230">
+        <v>824</v>
+      </c>
+      <c r="F230" s="11"/>
+      <c r="G230" s="10">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A231" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B231">
+        <v>825</v>
+      </c>
+      <c r="F231" s="11"/>
+      <c r="G231" s="10">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A232" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B232">
+        <v>826</v>
+      </c>
+      <c r="F232" s="11"/>
+      <c r="G232" s="10">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A233" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B233">
+        <v>827</v>
+      </c>
+      <c r="F233" s="11"/>
+      <c r="G233" s="10">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A234" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B234">
+        <v>827</v>
+      </c>
+      <c r="F234" s="11"/>
+      <c r="G234" s="10">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A235" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B235">
+        <v>827</v>
+      </c>
+      <c r="F235" s="11"/>
+      <c r="G235" s="10">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A236" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B236">
+        <v>828</v>
+      </c>
+      <c r="F236" s="11"/>
+      <c r="G236" s="10">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A237" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B237">
+        <v>829</v>
+      </c>
+      <c r="F237" s="11"/>
+      <c r="G237" s="10">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A238" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B238">
+        <v>830</v>
+      </c>
+      <c r="F238" s="11"/>
+      <c r="G238" s="10">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A239" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B239">
+        <v>831</v>
+      </c>
+      <c r="F239" s="11"/>
+      <c r="G239" s="10">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A240" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B240">
+        <v>832</v>
+      </c>
+      <c r="F240" s="11"/>
+      <c r="G240" s="10">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A241" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B241">
+        <v>833</v>
+      </c>
+      <c r="F241" s="11"/>
+      <c r="G241" s="10">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A242" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B242">
+        <v>834</v>
+      </c>
+      <c r="F242" s="11"/>
+      <c r="G242" s="10">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A243" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B243">
+        <v>835</v>
+      </c>
+      <c r="F243" s="11"/>
+      <c r="G243" s="10">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A244" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B244">
+        <v>836</v>
+      </c>
+      <c r="F244" s="11"/>
+      <c r="G244" s="10">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A245" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B245">
+        <v>837</v>
+      </c>
+      <c r="F245" s="11"/>
+      <c r="G245" s="12">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A246" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B246">
+        <v>838</v>
+      </c>
+      <c r="F246" s="11"/>
+      <c r="G246" s="13">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A247" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B247">
+        <v>839</v>
+      </c>
+      <c r="F247" s="11"/>
+      <c r="G247" s="10">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A248" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B248">
+        <v>840</v>
+      </c>
+      <c r="F248" s="11"/>
+      <c r="G248" s="10">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A249" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B249">
+        <v>841</v>
+      </c>
+      <c r="F249" s="11"/>
+      <c r="G249" s="10">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A250" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B250">
+        <v>842</v>
+      </c>
+      <c r="F250" s="11"/>
+      <c r="G250" s="10">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A251" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B251">
+        <v>843</v>
+      </c>
+      <c r="F251" s="11"/>
+      <c r="G251" s="10">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A252" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B252">
+        <v>844</v>
+      </c>
+      <c r="F252" s="11"/>
+      <c r="G252" s="10">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A253" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B253">
+        <v>845</v>
+      </c>
+      <c r="F253" s="11"/>
+      <c r="G253" s="10">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A254" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B254">
+        <v>846</v>
+      </c>
+      <c r="F254" s="11"/>
+      <c r="G254" s="12">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A255" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B255">
+        <v>847</v>
+      </c>
+      <c r="F255" s="11"/>
+      <c r="G255" s="13">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A256" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B256">
+        <v>848</v>
+      </c>
+      <c r="F256" s="11"/>
+      <c r="G256" s="10">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A257" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B257">
+        <v>849</v>
+      </c>
+      <c r="F257" s="11"/>
+      <c r="G257" s="10">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A258" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B258">
+        <v>850</v>
+      </c>
+      <c r="F258" s="11"/>
+      <c r="G258" s="10">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A259" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B259">
+        <v>851</v>
+      </c>
+      <c r="F259" s="11"/>
+      <c r="G259" s="10">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A260" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B260">
+        <v>852</v>
+      </c>
+      <c r="F260" s="11"/>
+      <c r="G260" s="10">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A261" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B261">
+        <v>853</v>
+      </c>
+      <c r="F261" s="11"/>
+      <c r="G261" s="10">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A262" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B262">
+        <v>854</v>
+      </c>
+      <c r="F262" s="11"/>
+      <c r="G262" s="12">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A263" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B263">
+        <v>855</v>
+      </c>
+      <c r="F263" s="11"/>
+      <c r="G263" s="13">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A264" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B264">
+        <v>856</v>
+      </c>
+      <c r="F264" s="11"/>
+      <c r="G264" s="10">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A265" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B265">
+        <v>857</v>
+      </c>
+      <c r="F265" s="11"/>
+      <c r="G265" s="10">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A266" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B266">
+        <v>858</v>
+      </c>
+      <c r="F266" s="11"/>
+      <c r="G266" s="12">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A267" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B267">
+        <v>859</v>
+      </c>
+      <c r="F267" s="11"/>
+      <c r="G267" s="13">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A268" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B268">
+        <v>860</v>
+      </c>
+      <c r="F268" s="11"/>
+      <c r="G268" s="10">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A269" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B269">
+        <v>861</v>
+      </c>
+      <c r="F269" s="11"/>
+      <c r="G269" s="10">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A270" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B270">
+        <v>862</v>
+      </c>
+      <c r="F270" s="11"/>
+      <c r="G270" s="10">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A271" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B271">
+        <v>863</v>
+      </c>
+      <c r="F271" s="11"/>
+      <c r="G271" s="10">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A272" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B272">
+        <v>864</v>
+      </c>
+      <c r="F272" s="11"/>
+      <c r="G272" s="10">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A273" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B273">
+        <v>865</v>
+      </c>
+      <c r="F273" s="11"/>
+      <c r="G273" s="10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A274" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B274">
+        <v>866</v>
+      </c>
+      <c r="F274" s="11"/>
+      <c r="G274" s="12">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A275" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B275">
+        <v>867</v>
+      </c>
+      <c r="F275" s="11"/>
+      <c r="G275" s="12">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A276" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B276">
+        <v>868</v>
+      </c>
+      <c r="F276" s="11"/>
+      <c r="G276" s="12">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A277" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B277">
+        <v>869</v>
+      </c>
+      <c r="F277" s="11"/>
+      <c r="G277" s="12">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A278" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B278">
+        <v>870</v>
+      </c>
+      <c r="F278" s="11"/>
+      <c r="G278" s="13">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A279" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B279">
+        <v>871</v>
+      </c>
+      <c r="F279" s="11"/>
+      <c r="G279" s="10">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A280" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B280">
+        <v>872</v>
+      </c>
+      <c r="F280" s="11"/>
+      <c r="G280" s="10">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A281" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B281">
+        <v>873</v>
+      </c>
+      <c r="F281" s="11"/>
+      <c r="G281" s="10">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A282" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B282">
+        <v>874</v>
+      </c>
+      <c r="F282" s="11"/>
+      <c r="G282" s="10">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A283" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B283">
+        <v>875</v>
+      </c>
+      <c r="F283" s="11"/>
+      <c r="G283" s="10">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A284" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B284">
+        <v>876</v>
+      </c>
+      <c r="F284" s="11"/>
+      <c r="G284" s="10">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A285" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B285">
+        <v>877</v>
+      </c>
+      <c r="F285" s="11"/>
+      <c r="G285" s="12">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A286" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B286">
+        <v>878</v>
+      </c>
+      <c r="F286" s="11"/>
+      <c r="G286" s="13">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A287" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B287">
+        <v>879</v>
+      </c>
+      <c r="F287" s="11"/>
+      <c r="G287" s="12">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A288" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B288">
+        <v>880</v>
+      </c>
+      <c r="F288" s="11"/>
+      <c r="G288" s="13">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A289" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B289">
+        <v>881</v>
+      </c>
+      <c r="F289" s="11"/>
+      <c r="G289" s="12">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A290" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B290">
+        <v>882</v>
+      </c>
+      <c r="F290" s="11"/>
+      <c r="G290" s="13">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A291" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B291">
+        <v>883</v>
+      </c>
+      <c r="F291" s="11"/>
+      <c r="G291" s="12">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A292" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B292">
+        <v>884</v>
+      </c>
+      <c r="F292" s="11"/>
+      <c r="G292" s="13">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A293" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B293">
+        <v>885</v>
+      </c>
+      <c r="F293" s="11"/>
+      <c r="G293" s="10">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A294" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B294">
+        <v>886</v>
+      </c>
+      <c r="F294" s="11"/>
+      <c r="G294" s="12">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A295" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B295">
+        <v>887</v>
+      </c>
+      <c r="F295" s="11"/>
+      <c r="G295" s="12">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A296" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B296">
+        <v>888</v>
+      </c>
+      <c r="F296" s="11"/>
+      <c r="G296" s="12">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A297" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B297">
+        <v>889</v>
+      </c>
+      <c r="F297" s="11"/>
+      <c r="G297" s="12">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A298" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B298">
+        <v>890</v>
+      </c>
+      <c r="F298" s="11"/>
+      <c r="G298" s="12">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A299" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B299">
+        <v>891</v>
+      </c>
+      <c r="F299" s="11"/>
+      <c r="G299" s="10">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A300" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B300">
+        <v>892</v>
+      </c>
+      <c r="F300" s="11"/>
+      <c r="G300" s="10">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A301" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B301">
+        <v>893</v>
+      </c>
+      <c r="F301" s="11"/>
+      <c r="G301" s="10">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A302" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B302">
+        <v>894</v>
+      </c>
+      <c r="F302" s="11"/>
+      <c r="G302" s="12">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A303" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B303">
+        <v>895</v>
+      </c>
+      <c r="F303" s="11"/>
+      <c r="G303" s="13">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A304" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B304">
+        <v>896</v>
+      </c>
+      <c r="F304" s="11"/>
+      <c r="G304" s="10">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="305" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A305" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B305">
+        <v>897</v>
+      </c>
+      <c r="F305" s="11"/>
+      <c r="G305" s="10">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="306" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A306" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B306">
+        <v>898</v>
+      </c>
+      <c r="F306" s="11"/>
+      <c r="G306" s="12">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="307" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A307" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B307">
+        <v>899</v>
+      </c>
+      <c r="F307" s="11"/>
+      <c r="G307" s="13">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="308" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A308" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B308">
+        <v>900</v>
+      </c>
+      <c r="F308" s="11"/>
+      <c r="G308" s="10">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="309" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A309" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B309">
+        <v>901</v>
+      </c>
+      <c r="F309" s="11"/>
+      <c r="G309" s="10">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="310" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A310" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B310">
+        <v>902</v>
+      </c>
+      <c r="F310" s="11"/>
+      <c r="G310" s="10">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="311" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A311" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B311">
+        <v>903</v>
+      </c>
+      <c r="F311" s="11"/>
+      <c r="G311" s="10">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="312" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A312" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B312">
+        <v>904</v>
+      </c>
+      <c r="F312" s="11"/>
+      <c r="G312" s="10">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="313" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A313" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B313">
+        <v>905</v>
+      </c>
+      <c r="F313" s="11"/>
+      <c r="G313" s="12">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="314" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A314" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B314">
+        <v>906</v>
+      </c>
+      <c r="F314" s="11"/>
+      <c r="G314" s="12">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="315" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A315" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B315">
+        <v>907</v>
+      </c>
+      <c r="F315" s="11"/>
+      <c r="G315" s="12">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="316" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A316" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B316">
+        <v>908</v>
+      </c>
+      <c r="F316" s="11"/>
+      <c r="G316" s="12">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="317" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A317" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B317">
+        <v>909</v>
+      </c>
+      <c r="F317" s="11"/>
+      <c r="G317" s="13">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="318" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A318" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B318">
+        <v>910</v>
+      </c>
+      <c r="F318" s="11"/>
+      <c r="G318" s="10">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="319" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A319" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B319" s="9">
+        <v>910</v>
+      </c>
+      <c r="C319" s="10"/>
+      <c r="D319" s="10"/>
+      <c r="E319" s="10"/>
+      <c r="F319" s="11"/>
+      <c r="G319" s="10">
+        <v>830</v>
+      </c>
+      <c r="H319" s="10"/>
+      <c r="I319" s="10"/>
+      <c r="J319" s="10"/>
+      <c r="K319" s="10"/>
+      <c r="L319" s="10"/>
+      <c r="M319" s="10"/>
+      <c r="N319" s="10"/>
+      <c r="O319" s="10"/>
+      <c r="P319" s="10"/>
+      <c r="Q319" s="10"/>
+      <c r="R319" s="10"/>
+      <c r="S319" s="10"/>
+      <c r="T319" s="10"/>
+      <c r="U319" s="10"/>
+      <c r="V319" s="10"/>
+      <c r="W319" s="10"/>
+      <c r="X319" s="10"/>
+      <c r="Y319" s="10"/>
+      <c r="Z319" s="10"/>
+      <c r="AA319" s="10"/>
+      <c r="AB319" s="10"/>
+      <c r="AC319" s="10"/>
+      <c r="AD319" s="10"/>
+      <c r="AE319" s="10"/>
+    </row>
+    <row r="320" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A320" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B320">
+        <v>911</v>
+      </c>
+      <c r="F320" s="11"/>
+      <c r="G320" s="10">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A321" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B321">
+        <v>912</v>
+      </c>
+      <c r="F321" s="11"/>
+      <c r="G321" s="12">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A322" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B322">
+        <v>913</v>
+      </c>
+      <c r="F322" s="11"/>
+      <c r="G322" s="13">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A323" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B323">
+        <v>914</v>
+      </c>
+      <c r="F323" s="11"/>
+      <c r="G323" s="10">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A324" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B324">
+        <v>915</v>
+      </c>
+      <c r="F324" s="11"/>
+      <c r="G324" s="12">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A325" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B325">
+        <v>916</v>
+      </c>
+      <c r="F325" s="11"/>
+      <c r="G325" s="13">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A326" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B326">
+        <v>917</v>
+      </c>
+      <c r="F326" s="11"/>
+      <c r="G326" s="10">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A327" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B327">
+        <v>918</v>
+      </c>
+      <c r="F327" s="11"/>
+      <c r="G327" s="10">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A328" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B328">
+        <v>919</v>
+      </c>
+      <c r="F328" s="11"/>
+      <c r="G328" s="10">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A329" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B329">
+        <v>920</v>
+      </c>
+      <c r="F329" s="11"/>
+      <c r="G329" s="12">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A330" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B330">
+        <v>921</v>
+      </c>
+      <c r="F330" s="11"/>
+      <c r="G330" s="13">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A331" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B331">
+        <v>922</v>
+      </c>
+      <c r="F331" s="11"/>
+      <c r="G331" s="10">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A332" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B332">
+        <v>923</v>
+      </c>
+      <c r="F332" s="11"/>
+      <c r="G332" s="10">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A333" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B333">
+        <v>924</v>
+      </c>
+      <c r="F333" s="11"/>
+      <c r="G333" s="10">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A334" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B334">
+        <v>925</v>
+      </c>
+      <c r="F334" s="11"/>
+      <c r="G334" s="10">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A335" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B335">
+        <v>926</v>
+      </c>
+      <c r="F335" s="11"/>
+      <c r="G335" s="10">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A336" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B336">
+        <v>927</v>
+      </c>
+      <c r="F336" s="11"/>
+      <c r="G336" s="10">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A337" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B337">
+        <v>928</v>
+      </c>
+      <c r="F337" s="11"/>
+      <c r="G337" s="10">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A338" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B338">
+        <v>929</v>
+      </c>
+      <c r="F338" s="11"/>
+      <c r="G338" s="10">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A339" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B339">
+        <v>930</v>
+      </c>
+      <c r="F339" s="11"/>
+      <c r="G339" s="10">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A340" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B340">
+        <v>931</v>
+      </c>
+      <c r="F340" s="11"/>
+      <c r="G340" s="10">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A341" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B341">
+        <v>932</v>
+      </c>
+      <c r="F341" s="11"/>
+      <c r="G341" s="10">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A342" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B342">
+        <v>933</v>
+      </c>
+      <c r="F342" s="11"/>
+      <c r="G342" s="10">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A343" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B343">
+        <v>934</v>
+      </c>
+      <c r="F343" s="11"/>
+      <c r="G343" s="10">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A344" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B344">
+        <v>935</v>
+      </c>
+      <c r="F344" s="11"/>
+      <c r="G344" s="10">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A345" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B345">
+        <v>936</v>
+      </c>
+      <c r="F345" s="11"/>
+      <c r="G345" s="10">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A346" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B346">
+        <v>937</v>
+      </c>
+      <c r="F346" s="11"/>
+      <c r="G346" s="10">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A347" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B347">
+        <v>938</v>
+      </c>
+      <c r="F347" s="11"/>
+      <c r="G347" s="10">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A348" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B348">
+        <v>939</v>
+      </c>
+      <c r="F348" s="11"/>
+      <c r="G348" s="10">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A349" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B349">
+        <v>940</v>
+      </c>
+      <c r="F349" s="11"/>
+      <c r="G349" s="10">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A350" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B350">
+        <v>941</v>
+      </c>
+      <c r="F350" s="11"/>
+      <c r="G350" s="10">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A351" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B351">
+        <v>942</v>
+      </c>
+      <c r="F351" s="11"/>
+      <c r="G351" s="10">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A352" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B352">
+        <v>943</v>
+      </c>
+      <c r="F352" s="11"/>
+      <c r="G352" s="10">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A353" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B353">
+        <v>944</v>
+      </c>
+      <c r="F353" s="11"/>
+      <c r="G353" s="10">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A354" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B354">
+        <v>945</v>
+      </c>
+      <c r="F354" s="11"/>
+      <c r="G354" s="10">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A355" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B355">
+        <v>946</v>
+      </c>
+      <c r="F355" s="11"/>
+      <c r="G355" s="10">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A356" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B356">
+        <v>947</v>
+      </c>
+      <c r="F356" s="11"/>
+      <c r="G356" s="10">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A357" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B357">
+        <v>948</v>
+      </c>
+      <c r="F357" s="11"/>
+      <c r="G357" s="10">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A358" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B358">
+        <v>949</v>
+      </c>
+      <c r="F358" s="11"/>
+      <c r="G358" s="10">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A359" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B359">
+        <v>950</v>
+      </c>
+      <c r="F359" s="11"/>
+      <c r="G359" s="10">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A360" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B360">
+        <v>951</v>
+      </c>
+      <c r="F360" s="11"/>
+      <c r="G360" s="10">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A361" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B361">
+        <v>952</v>
+      </c>
+      <c r="F361" s="11"/>
+      <c r="G361" s="10">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A362" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B362">
+        <v>953</v>
+      </c>
+      <c r="F362" s="11"/>
+      <c r="G362" s="10">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A363" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B363">
+        <v>954</v>
+      </c>
+      <c r="F363" s="11"/>
+      <c r="G363" s="10">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A364" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B364">
+        <v>955</v>
+      </c>
+      <c r="F364" s="11"/>
+      <c r="G364" s="10">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A365" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B365">
+        <v>956</v>
+      </c>
+      <c r="F365" s="11"/>
+      <c r="G365" s="10">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A366" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B366">
+        <v>957</v>
+      </c>
+      <c r="F366" s="11"/>
+      <c r="G366" s="10">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A367" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B367">
+        <v>958</v>
+      </c>
+      <c r="F367" s="11"/>
+      <c r="G367" s="10">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A368" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B368">
+        <v>959</v>
+      </c>
+      <c r="F368" s="11"/>
+      <c r="G368" s="10">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A369" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B369">
+        <v>960</v>
+      </c>
+      <c r="F369" s="11"/>
+      <c r="G369" s="10">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A370" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B370">
+        <v>961</v>
+      </c>
+      <c r="F370" s="11"/>
+      <c r="G370" s="10">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A371" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B371">
+        <v>962</v>
+      </c>
+      <c r="F371" s="11"/>
+      <c r="G371" s="10">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A372" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B372">
+        <v>963</v>
+      </c>
+      <c r="F372" s="11"/>
+      <c r="G372" s="10">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A373" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B373">
+        <v>964</v>
+      </c>
+      <c r="F373" s="11"/>
+      <c r="G373" s="10">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A374" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B374">
+        <v>965</v>
+      </c>
+      <c r="F374" s="11"/>
+      <c r="G374" s="10">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A375" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B375">
+        <v>966</v>
+      </c>
+      <c r="F375" s="11"/>
+      <c r="G375" s="10">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A376" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B376">
+        <v>967</v>
+      </c>
+      <c r="F376" s="11"/>
+      <c r="G376" s="10">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A377" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B377">
+        <v>968</v>
+      </c>
+      <c r="F377" s="11"/>
+      <c r="G377" s="10">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A378" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B378">
+        <v>969</v>
+      </c>
+      <c r="F378" s="11"/>
+      <c r="G378" s="10">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A379" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B379">
+        <v>970</v>
+      </c>
+      <c r="F379" s="11"/>
+      <c r="G379" s="10">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A380" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B380">
+        <v>971</v>
+      </c>
+      <c r="F380" s="11"/>
+      <c r="G380" s="10">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A381" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B381">
+        <v>972</v>
+      </c>
+      <c r="F381" s="11"/>
+      <c r="G381" s="10">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A382" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B382">
+        <v>973</v>
+      </c>
+      <c r="F382" s="11"/>
+      <c r="G382" s="10">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A383" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B383">
+        <v>974</v>
+      </c>
+      <c r="F383" s="11"/>
+      <c r="G383" s="10">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A384" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B384">
+        <v>975</v>
+      </c>
+      <c r="F384" s="11"/>
+      <c r="G384" s="10">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A385" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B385">
+        <v>976</v>
+      </c>
+      <c r="F385" s="11"/>
+      <c r="G385" s="10">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A386" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B386">
+        <v>977</v>
+      </c>
+      <c r="F386" s="11"/>
+      <c r="G386" s="10">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A387" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B387">
+        <v>978</v>
+      </c>
+      <c r="F387" s="11"/>
+      <c r="G387" s="10">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A388" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B388">
+        <v>979</v>
+      </c>
+      <c r="F388" s="11"/>
+      <c r="G388" s="10">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A389" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B389">
+        <v>980</v>
+      </c>
+      <c r="F389" s="11"/>
+      <c r="G389" s="10">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A390" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B390">
+        <v>981</v>
+      </c>
+      <c r="F390" s="11"/>
+      <c r="G390" s="10">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A391" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B391">
+        <v>982</v>
+      </c>
+      <c r="F391" s="11"/>
+      <c r="G391" s="10">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A392" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B392">
+        <v>983</v>
+      </c>
+      <c r="F392" s="11"/>
+      <c r="G392" s="10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A393" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B393">
+        <v>984</v>
+      </c>
+      <c r="F393" s="11"/>
+      <c r="G393" s="10">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A394" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B394">
+        <v>985</v>
+      </c>
+      <c r="F394" s="11"/>
+      <c r="G394" s="10">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A395" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B395">
+        <v>986</v>
+      </c>
+      <c r="F395" s="11"/>
+      <c r="G395" s="10">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A396" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B396">
+        <v>987</v>
+      </c>
+      <c r="F396" s="11"/>
+      <c r="G396" s="10">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A397" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B397">
+        <v>988</v>
+      </c>
+      <c r="F397" s="11"/>
+      <c r="G397" s="10">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A398" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B398">
+        <v>989</v>
+      </c>
+      <c r="F398" s="11"/>
+      <c r="G398" s="10">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A399" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B399">
+        <v>990</v>
+      </c>
+      <c r="F399" s="11"/>
+      <c r="G399" s="10">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A400" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B400">
+        <v>991</v>
+      </c>
+      <c r="F400" s="11"/>
+      <c r="G400" s="10">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="401" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A401" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B401">
+        <v>992</v>
+      </c>
+      <c r="F401" s="11"/>
+      <c r="G401" s="10">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="402" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A402" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B402">
+        <v>993</v>
+      </c>
+      <c r="F402" s="11"/>
+      <c r="G402" s="12">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="403" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A403" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B403">
+        <v>994</v>
+      </c>
+      <c r="F403" s="11"/>
+      <c r="G403" s="12">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="404" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A404" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B404" s="9">
+        <v>994</v>
+      </c>
+      <c r="C404" s="10"/>
+      <c r="D404" s="10"/>
+      <c r="E404" s="10"/>
+      <c r="F404" s="11"/>
+      <c r="G404" s="10">
+        <v>911</v>
+      </c>
+      <c r="H404" s="10"/>
+      <c r="I404" s="10"/>
+      <c r="J404" s="10"/>
+      <c r="K404" s="10"/>
+      <c r="L404" s="10"/>
+      <c r="M404" s="10"/>
+      <c r="N404" s="10"/>
+      <c r="O404" s="10"/>
+      <c r="P404" s="10"/>
+      <c r="Q404" s="10"/>
+      <c r="R404" s="10"/>
+      <c r="S404" s="10"/>
+      <c r="T404" s="10"/>
+      <c r="U404" s="10"/>
+      <c r="V404" s="10"/>
+      <c r="W404" s="10"/>
+      <c r="X404" s="10"/>
+      <c r="Y404" s="10"/>
+      <c r="Z404" s="10"/>
+      <c r="AA404" s="10"/>
+      <c r="AB404" s="10"/>
+      <c r="AC404" s="10"/>
+      <c r="AD404" s="10"/>
+      <c r="AE404" s="10"/>
+    </row>
+    <row r="405" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A405" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B405">
+        <v>995</v>
+      </c>
+      <c r="F405" s="11"/>
+      <c r="G405" s="10">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="406" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A406" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B406">
+        <v>996</v>
+      </c>
+      <c r="F406" s="11"/>
+      <c r="G406" s="10">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="407" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A407" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B407">
+        <v>997</v>
+      </c>
+      <c r="F407" s="11"/>
+      <c r="G407" s="10">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="408" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A408" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B408">
+        <v>998</v>
+      </c>
+      <c r="F408" s="11"/>
+      <c r="G408" s="10">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="409" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A409" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B409">
+        <v>999</v>
+      </c>
+      <c r="F409" s="11"/>
+      <c r="G409" s="10">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="410" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A410" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B410">
+        <v>1000</v>
+      </c>
+      <c r="F410" s="11"/>
+      <c r="G410" s="10">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="411" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A411" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B411">
+        <v>1001</v>
+      </c>
+      <c r="F411" s="11"/>
+      <c r="G411" s="10">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="412" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A412" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B412">
+        <v>1002</v>
+      </c>
+      <c r="F412" s="11"/>
+      <c r="G412" s="10">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="413" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A413" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B413">
+        <v>1003</v>
+      </c>
+      <c r="F413" s="11"/>
+      <c r="G413" s="10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="414" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A414" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B414">
+        <v>1004</v>
+      </c>
+      <c r="F414" s="11"/>
+      <c r="G414" s="10">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="415" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A415" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B415">
+        <v>1005</v>
+      </c>
+      <c r="F415" s="11"/>
+      <c r="G415" s="10">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="416" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A416" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B416">
+        <v>1006</v>
+      </c>
+      <c r="F416" s="11"/>
+      <c r="G416" s="10">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A417" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B417">
+        <v>1007</v>
+      </c>
+      <c r="F417" s="11"/>
+      <c r="G417" s="10">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A418" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B418">
+        <v>1008</v>
+      </c>
+      <c r="F418" s="11"/>
+      <c r="G418" s="10">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B419">
+        <v>1009</v>
+      </c>
+      <c r="F419" s="11"/>
+      <c r="G419" s="10">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B420">
+        <v>1010</v>
+      </c>
+      <c r="F420" s="11"/>
+      <c r="G420" s="10">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B421">
+        <v>1011</v>
+      </c>
+      <c r="F421" s="11"/>
+      <c r="G421" s="10">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B422">
+        <v>1012</v>
+      </c>
+      <c r="F422" s="11"/>
+      <c r="G422" s="10">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B423">
+        <v>1013</v>
+      </c>
+      <c r="F423" s="11"/>
+      <c r="G423" s="10">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B424">
+        <v>1014</v>
+      </c>
+      <c r="F424" s="11"/>
+      <c r="G424" s="10">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B425">
+        <v>1015</v>
+      </c>
+      <c r="F425" s="11"/>
+      <c r="G425" s="10">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B426">
+        <v>1016</v>
+      </c>
+      <c r="F426" s="11"/>
+      <c r="G426" s="10">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B427">
+        <v>1017</v>
+      </c>
+      <c r="F427" s="11"/>
+      <c r="G427" s="10">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B428">
+        <v>1018</v>
+      </c>
+      <c r="F428" s="11"/>
+      <c r="G428" s="10">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B429">
+        <v>1019</v>
+      </c>
+      <c r="F429" s="11"/>
+      <c r="G429" s="10">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B430">
+        <v>1020</v>
+      </c>
+      <c r="F430" s="11"/>
+      <c r="G430" s="10">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B431">
+        <v>1021</v>
+      </c>
+      <c r="F431" s="11"/>
+      <c r="G431" s="10">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B432">
+        <v>1022</v>
+      </c>
+      <c r="F432" s="11"/>
+      <c r="G432" s="10">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B433">
+        <v>1023</v>
+      </c>
+      <c r="F433" s="11"/>
+      <c r="G433" s="10">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B434">
+        <v>1024</v>
+      </c>
+      <c r="F434" s="11"/>
+      <c r="G434" s="10">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B435">
+        <v>1025</v>
+      </c>
+      <c r="F435" s="11"/>
+      <c r="G435" s="10">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B436">
+        <v>1026</v>
+      </c>
+      <c r="F436" s="11"/>
+      <c r="G436" s="12">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B437">
+        <v>1027</v>
+      </c>
+      <c r="F437" s="11"/>
+      <c r="G437" s="13">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B438">
+        <v>1028</v>
+      </c>
+      <c r="F438" s="11"/>
+      <c r="G438" s="10">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B439">
+        <v>1029</v>
+      </c>
+      <c r="F439" s="11"/>
+      <c r="G439" s="10">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B440">
+        <v>1030</v>
+      </c>
+      <c r="F440" s="11"/>
+      <c r="G440" s="12">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B441">
+        <v>1031</v>
+      </c>
+      <c r="F441" s="11"/>
+      <c r="G441" s="13">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B442">
+        <v>1032</v>
+      </c>
+      <c r="F442" s="11"/>
+      <c r="G442" s="10">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B443">
+        <v>1033</v>
+      </c>
+      <c r="F443" s="11"/>
+      <c r="G443" s="10">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B444">
+        <v>1034</v>
+      </c>
+      <c r="F444" s="11"/>
+      <c r="G444" s="10">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B445">
+        <v>1035</v>
+      </c>
+      <c r="F445" s="11"/>
+      <c r="G445" s="10">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B446">
+        <v>1036</v>
+      </c>
+      <c r="F446" s="11"/>
+      <c r="G446" s="10">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B447">
+        <v>1037</v>
+      </c>
+      <c r="F447" s="11"/>
+      <c r="G447" s="10">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B448">
+        <v>1038</v>
+      </c>
+      <c r="F448" s="11"/>
+      <c r="G448" s="10">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B449">
+        <v>1039</v>
+      </c>
+      <c r="F449" s="11"/>
+      <c r="G449" s="10">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B450">
+        <v>1040</v>
+      </c>
+      <c r="F450" s="11"/>
+      <c r="G450" s="10">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B451">
+        <v>1041</v>
+      </c>
+      <c r="F451" s="11"/>
+      <c r="G451" s="10">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B452">
+        <v>1042</v>
+      </c>
+      <c r="F452" s="11"/>
+      <c r="G452" s="10">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B453">
+        <v>1043</v>
+      </c>
+      <c r="F453" s="11"/>
+      <c r="G453" s="10">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B454">
+        <v>1044</v>
+      </c>
+      <c r="F454" s="11"/>
+      <c r="G454" s="10">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B455">
+        <v>1045</v>
+      </c>
+      <c r="F455" s="11"/>
+      <c r="G455" s="10">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B456">
+        <v>1046</v>
+      </c>
+      <c r="F456" s="11"/>
+      <c r="G456" s="10">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B457">
+        <v>1047</v>
+      </c>
+      <c r="F457" s="11"/>
+      <c r="G457" s="10">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B458">
+        <v>1048</v>
+      </c>
+      <c r="F458" s="11"/>
+      <c r="G458" s="10">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B459">
+        <v>1049</v>
+      </c>
+      <c r="F459" s="11"/>
+      <c r="G459" s="10">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B460">
+        <v>1050</v>
+      </c>
+      <c r="F460" s="11"/>
+      <c r="G460" s="10">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B461">
+        <v>1051</v>
+      </c>
+      <c r="F461" s="11"/>
+      <c r="G461" s="10">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B462">
+        <v>1052</v>
+      </c>
+      <c r="F462" s="11"/>
+      <c r="G462" s="10">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B463">
+        <v>1053</v>
+      </c>
+      <c r="F463" s="11"/>
+      <c r="G463" s="10">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B464">
+        <v>1054</v>
+      </c>
+      <c r="F464" s="11"/>
+      <c r="G464" s="10">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="465" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B465">
+        <v>1055</v>
+      </c>
+      <c r="F465" s="11"/>
+      <c r="G465" s="10">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="466" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B466">
+        <v>1056</v>
+      </c>
+      <c r="F466" s="11"/>
+      <c r="G466" s="10">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="467" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B467">
+        <v>1057</v>
+      </c>
+      <c r="F467" s="11"/>
+      <c r="G467" s="10">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="468" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B468">
+        <v>1058</v>
+      </c>
+      <c r="F468" s="11"/>
+      <c r="G468" s="10">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="469" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B469">
+        <v>1059</v>
+      </c>
+      <c r="F469" s="11"/>
+      <c r="G469" s="10">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="470" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B470">
+        <v>1060</v>
+      </c>
+      <c r="F470" s="11"/>
+      <c r="G470" s="10">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="471" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B471">
+        <v>1061</v>
+      </c>
+      <c r="F471" s="11"/>
+      <c r="G471" s="10">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="472" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B472">
+        <v>1062</v>
+      </c>
+      <c r="F472" s="11"/>
+      <c r="G472" s="10">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="473" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B473">
+        <v>1063</v>
+      </c>
+      <c r="F473" s="11"/>
+      <c r="G473" s="10">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="474" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B474">
+        <v>1064</v>
+      </c>
+      <c r="F474" s="11"/>
+      <c r="G474" s="10">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="475" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B475">
+        <v>1065</v>
+      </c>
+      <c r="F475" s="11"/>
+      <c r="G475" s="10">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="476" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B476">
+        <v>1066</v>
+      </c>
+      <c r="F476" s="11"/>
+      <c r="G476" s="10">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="477" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B477">
+        <v>1067</v>
+      </c>
+      <c r="F477" s="11"/>
+      <c r="G477" s="10">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="478" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A478" s="8">
+        <v>776</v>
+      </c>
+      <c r="B478" s="9">
+        <v>2003</v>
+      </c>
+      <c r="C478" s="10"/>
+      <c r="D478" s="10"/>
+      <c r="E478" s="10"/>
+      <c r="F478" s="10"/>
+      <c r="G478" s="10">
+        <v>983</v>
+      </c>
+      <c r="H478" s="10"/>
+      <c r="I478" s="10"/>
+      <c r="J478" s="10"/>
+      <c r="K478" s="10"/>
+      <c r="L478" s="10"/>
+      <c r="M478" s="10"/>
+      <c r="N478" s="10"/>
+      <c r="O478" s="10"/>
+      <c r="P478" s="10"/>
+      <c r="Q478" s="10"/>
+      <c r="R478" s="10"/>
+      <c r="S478" s="10"/>
+      <c r="T478" s="10"/>
+      <c r="U478" s="10"/>
+      <c r="V478" s="10"/>
+      <c r="W478" s="10"/>
+      <c r="X478" s="10"/>
+      <c r="Y478" s="10"/>
+      <c r="Z478" s="10"/>
+      <c r="AA478" s="10"/>
+      <c r="AB478" s="10"/>
+      <c r="AC478" s="10"/>
+      <c r="AD478" s="10"/>
+      <c r="AE478" s="10"/>
+    </row>
+    <row r="479" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A479" s="8">
+        <v>784</v>
+      </c>
+      <c r="B479" s="9">
+        <v>2003</v>
+      </c>
+      <c r="C479" s="10"/>
+      <c r="D479" s="10"/>
+      <c r="E479" s="10"/>
+      <c r="F479" s="10"/>
+      <c r="G479" s="10">
+        <v>984</v>
+      </c>
+      <c r="H479" s="10"/>
+      <c r="I479" s="10"/>
+      <c r="J479" s="10"/>
+      <c r="K479" s="10"/>
+      <c r="L479" s="10"/>
+      <c r="M479" s="10"/>
+      <c r="N479" s="10"/>
+      <c r="O479" s="10"/>
+      <c r="P479" s="10"/>
+      <c r="Q479" s="10"/>
+      <c r="R479" s="10"/>
+      <c r="S479" s="10"/>
+      <c r="T479" s="10"/>
+      <c r="U479" s="10"/>
+      <c r="V479" s="10"/>
+      <c r="W479" s="10"/>
+      <c r="X479" s="10"/>
+      <c r="Y479" s="10"/>
+      <c r="Z479" s="10"/>
+      <c r="AA479" s="10"/>
+      <c r="AB479" s="10"/>
+      <c r="AC479" s="10"/>
+      <c r="AD479" s="10"/>
+      <c r="AE479" s="10"/>
+    </row>
+    <row r="480" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A480" s="8">
+        <v>791</v>
+      </c>
+      <c r="B480" s="9">
+        <v>2004</v>
+      </c>
+      <c r="C480" s="10"/>
+      <c r="D480" s="10"/>
+      <c r="E480" s="10"/>
+      <c r="F480" s="10"/>
+      <c r="G480" s="10">
+        <v>985</v>
+      </c>
+      <c r="H480" s="10"/>
+      <c r="I480" s="10"/>
+      <c r="J480" s="10"/>
+      <c r="K480" s="10"/>
+      <c r="L480" s="10"/>
+      <c r="M480" s="10"/>
+      <c r="N480" s="10"/>
+      <c r="O480" s="10"/>
+      <c r="P480" s="10"/>
+      <c r="Q480" s="10"/>
+      <c r="R480" s="10"/>
+      <c r="S480" s="10"/>
+      <c r="T480" s="10"/>
+      <c r="U480" s="10"/>
+      <c r="V480" s="10"/>
+      <c r="W480" s="10"/>
+      <c r="X480" s="10"/>
+      <c r="Y480" s="10"/>
+      <c r="Z480" s="10"/>
+      <c r="AA480" s="10"/>
+      <c r="AB480" s="10"/>
+      <c r="AC480" s="10"/>
+      <c r="AD480" s="10"/>
+      <c r="AE480" s="10"/>
+    </row>
+    <row r="481" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A481" s="8">
+        <v>794</v>
+      </c>
+      <c r="B481" s="9">
+        <v>2004</v>
+      </c>
+      <c r="C481" s="10"/>
+      <c r="D481" s="10"/>
+      <c r="E481" s="10"/>
+      <c r="F481" s="10"/>
+      <c r="G481" s="10">
+        <v>986</v>
+      </c>
+      <c r="H481" s="10"/>
+      <c r="I481" s="10"/>
+      <c r="J481" s="10"/>
+      <c r="K481" s="10"/>
+      <c r="L481" s="10"/>
+      <c r="M481" s="10"/>
+      <c r="N481" s="10"/>
+      <c r="O481" s="10"/>
+      <c r="P481" s="10"/>
+      <c r="Q481" s="10"/>
+      <c r="R481" s="10"/>
+      <c r="S481" s="10"/>
+      <c r="T481" s="10"/>
+      <c r="U481" s="10"/>
+      <c r="V481" s="10"/>
+      <c r="W481" s="10"/>
+      <c r="X481" s="10"/>
+      <c r="Y481" s="10"/>
+      <c r="Z481" s="10"/>
+      <c r="AA481" s="10"/>
+      <c r="AB481" s="10"/>
+      <c r="AC481" s="10"/>
+      <c r="AD481" s="10"/>
+      <c r="AE481" s="10"/>
+    </row>
+    <row r="482" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A482" s="8">
+        <v>802</v>
+      </c>
+      <c r="B482" s="9">
+        <v>2005</v>
+      </c>
+      <c r="C482" s="10"/>
+      <c r="D482" s="10"/>
+      <c r="E482" s="10"/>
+      <c r="F482" s="10"/>
+      <c r="G482" s="10">
+        <v>987</v>
+      </c>
+      <c r="H482" s="10"/>
+      <c r="I482" s="10"/>
+      <c r="J482" s="10"/>
+      <c r="K482" s="10"/>
+      <c r="L482" s="10"/>
+      <c r="M482" s="10"/>
+      <c r="N482" s="10"/>
+      <c r="O482" s="10"/>
+      <c r="P482" s="10"/>
+      <c r="Q482" s="10"/>
+      <c r="R482" s="10"/>
+      <c r="S482" s="10"/>
+      <c r="T482" s="10"/>
+      <c r="U482" s="10"/>
+      <c r="V482" s="10"/>
+      <c r="W482" s="10"/>
+      <c r="X482" s="10"/>
+      <c r="Y482" s="10"/>
+      <c r="Z482" s="10"/>
+      <c r="AA482" s="10"/>
+      <c r="AB482" s="10"/>
+      <c r="AC482" s="10"/>
+      <c r="AD482" s="10"/>
+      <c r="AE482" s="10"/>
+    </row>
+    <row r="483" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A483" s="8">
+        <v>809</v>
+      </c>
+      <c r="B483" s="9">
+        <v>2005</v>
+      </c>
+      <c r="C483" s="10"/>
+      <c r="D483" s="10"/>
+      <c r="E483" s="10"/>
+      <c r="F483" s="10"/>
+      <c r="G483" s="10">
+        <v>988</v>
+      </c>
+      <c r="H483" s="10"/>
+      <c r="I483" s="10"/>
+      <c r="J483" s="10"/>
+      <c r="K483" s="10"/>
+      <c r="L483" s="10"/>
+      <c r="M483" s="10"/>
+      <c r="N483" s="10"/>
+      <c r="O483" s="10"/>
+      <c r="P483" s="10"/>
+      <c r="Q483" s="10"/>
+      <c r="R483" s="10"/>
+      <c r="S483" s="10"/>
+      <c r="T483" s="10"/>
+      <c r="U483" s="10"/>
+      <c r="V483" s="10"/>
+      <c r="W483" s="10"/>
+      <c r="X483" s="10"/>
+      <c r="Y483" s="10"/>
+      <c r="Z483" s="10"/>
+      <c r="AA483" s="10"/>
+      <c r="AB483" s="10"/>
+      <c r="AC483" s="10"/>
+      <c r="AD483" s="10"/>
+      <c r="AE483" s="10"/>
+    </row>
+    <row r="484" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A484" s="8">
+        <v>810</v>
+      </c>
+      <c r="B484" s="9">
+        <v>2005</v>
+      </c>
+      <c r="C484" s="10"/>
+      <c r="D484" s="10"/>
+      <c r="E484" s="10"/>
+      <c r="F484" s="10"/>
+      <c r="G484" s="10">
+        <v>989</v>
+      </c>
+      <c r="H484" s="10"/>
+      <c r="I484" s="10"/>
+      <c r="J484" s="10"/>
+      <c r="K484" s="10"/>
+      <c r="L484" s="10"/>
+      <c r="M484" s="10"/>
+      <c r="N484" s="10"/>
+      <c r="O484" s="10"/>
+      <c r="P484" s="10"/>
+      <c r="Q484" s="10"/>
+      <c r="R484" s="10"/>
+      <c r="S484" s="10"/>
+      <c r="T484" s="10"/>
+      <c r="U484" s="10"/>
+      <c r="V484" s="10"/>
+      <c r="W484" s="10"/>
+      <c r="X484" s="10"/>
+      <c r="Y484" s="10"/>
+      <c r="Z484" s="10"/>
+      <c r="AA484" s="10"/>
+      <c r="AB484" s="10"/>
+      <c r="AC484" s="10"/>
+      <c r="AD484" s="10"/>
+      <c r="AE484" s="10"/>
+    </row>
+    <row r="485" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A485" s="8">
+        <v>811</v>
+      </c>
+      <c r="B485" s="9">
+        <v>2005</v>
+      </c>
+      <c r="C485" s="10"/>
+      <c r="D485" s="10"/>
+      <c r="E485" s="10"/>
+      <c r="F485" s="10"/>
+      <c r="G485" s="10">
+        <v>990</v>
+      </c>
+      <c r="H485" s="10"/>
+      <c r="I485" s="10"/>
+      <c r="J485" s="10"/>
+      <c r="K485" s="10"/>
+      <c r="L485" s="10"/>
+      <c r="M485" s="10"/>
+      <c r="N485" s="10"/>
+      <c r="O485" s="10"/>
+      <c r="P485" s="10"/>
+      <c r="Q485" s="10"/>
+      <c r="R485" s="10"/>
+      <c r="S485" s="10"/>
+      <c r="T485" s="10"/>
+      <c r="U485" s="10"/>
+      <c r="V485" s="10"/>
+      <c r="W485" s="10"/>
+      <c r="X485" s="10"/>
+      <c r="Y485" s="10"/>
+      <c r="Z485" s="10"/>
+      <c r="AA485" s="10"/>
+      <c r="AB485" s="10"/>
+      <c r="AC485" s="10"/>
+      <c r="AD485" s="10"/>
+      <c r="AE485" s="10"/>
+    </row>
+    <row r="486" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A486" s="8">
+        <v>812</v>
+      </c>
+      <c r="B486" s="9">
+        <v>2005</v>
+      </c>
+      <c r="C486" s="10"/>
+      <c r="D486" s="10"/>
+      <c r="E486" s="10"/>
+      <c r="F486" s="10"/>
+      <c r="G486" s="10">
+        <v>991</v>
+      </c>
+      <c r="H486" s="10"/>
+      <c r="I486" s="10"/>
+      <c r="J486" s="10"/>
+      <c r="K486" s="10"/>
+      <c r="L486" s="10"/>
+      <c r="M486" s="10"/>
+      <c r="N486" s="10"/>
+      <c r="O486" s="10"/>
+      <c r="P486" s="10"/>
+      <c r="Q486" s="10"/>
+      <c r="R486" s="10"/>
+      <c r="S486" s="10"/>
+      <c r="T486" s="10"/>
+      <c r="U486" s="10"/>
+      <c r="V486" s="10"/>
+      <c r="W486" s="10"/>
+      <c r="X486" s="10"/>
+      <c r="Y486" s="10"/>
+      <c r="Z486" s="10"/>
+      <c r="AA486" s="10"/>
+      <c r="AB486" s="10"/>
+      <c r="AC486" s="10"/>
+      <c r="AD486" s="10"/>
+      <c r="AE486" s="10"/>
+    </row>
+    <row r="487" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A487" s="8">
+        <v>818</v>
+      </c>
+      <c r="B487" s="9">
+        <v>2006</v>
+      </c>
+      <c r="C487" s="10"/>
+      <c r="D487" s="10"/>
+      <c r="E487" s="10"/>
+      <c r="F487" s="10"/>
+      <c r="G487" s="10">
+        <v>992</v>
+      </c>
+      <c r="H487" s="10"/>
+      <c r="I487" s="10"/>
+      <c r="J487" s="10"/>
+      <c r="K487" s="10"/>
+      <c r="L487" s="10"/>
+      <c r="M487" s="10"/>
+      <c r="N487" s="10"/>
+      <c r="O487" s="10"/>
+      <c r="P487" s="10"/>
+      <c r="Q487" s="10"/>
+      <c r="R487" s="10"/>
+      <c r="S487" s="10"/>
+      <c r="T487" s="10"/>
+      <c r="U487" s="10"/>
+      <c r="V487" s="10"/>
+      <c r="W487" s="10"/>
+      <c r="X487" s="10"/>
+      <c r="Y487" s="10"/>
+      <c r="Z487" s="10"/>
+      <c r="AA487" s="10"/>
+      <c r="AB487" s="10"/>
+      <c r="AC487" s="10"/>
+      <c r="AD487" s="10"/>
+      <c r="AE487" s="10"/>
+    </row>
+    <row r="488" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A488" s="8">
+        <v>821</v>
+      </c>
+      <c r="B488" s="9">
+        <v>2006</v>
+      </c>
+      <c r="C488" s="10"/>
+      <c r="D488" s="10"/>
+      <c r="E488" s="10"/>
+      <c r="F488" s="10"/>
+      <c r="G488" s="10">
+        <v>993</v>
+      </c>
+      <c r="H488" s="10"/>
+      <c r="I488" s="10"/>
+      <c r="J488" s="10"/>
+      <c r="K488" s="10"/>
+      <c r="L488" s="10"/>
+      <c r="M488" s="10"/>
+      <c r="N488" s="10"/>
+      <c r="O488" s="10"/>
+      <c r="P488" s="10"/>
+      <c r="Q488" s="10"/>
+      <c r="R488" s="10"/>
+      <c r="S488" s="10"/>
+      <c r="T488" s="10"/>
+      <c r="U488" s="10"/>
+      <c r="V488" s="10"/>
+      <c r="W488" s="10"/>
+      <c r="X488" s="10"/>
+      <c r="Y488" s="10"/>
+      <c r="Z488" s="10"/>
+      <c r="AA488" s="10"/>
+      <c r="AB488" s="10"/>
+      <c r="AC488" s="10"/>
+      <c r="AD488" s="10"/>
+      <c r="AE488" s="10"/>
+    </row>
+    <row r="489" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A489" s="8">
+        <v>828</v>
+      </c>
+      <c r="B489" s="9">
+        <v>2007</v>
+      </c>
+      <c r="C489" s="10"/>
+      <c r="D489" s="10"/>
+      <c r="E489" s="10"/>
+      <c r="F489" s="10"/>
+      <c r="G489" s="12">
+        <v>994</v>
+      </c>
+      <c r="H489" s="10"/>
+      <c r="I489" s="10"/>
+      <c r="J489" s="10"/>
+      <c r="K489" s="10"/>
+      <c r="L489" s="10"/>
+      <c r="M489" s="10"/>
+      <c r="N489" s="10"/>
+      <c r="O489" s="10"/>
+      <c r="P489" s="10"/>
+      <c r="Q489" s="10"/>
+      <c r="R489" s="10"/>
+      <c r="S489" s="10"/>
+      <c r="T489" s="10"/>
+      <c r="U489" s="10"/>
+      <c r="V489" s="10"/>
+      <c r="W489" s="10"/>
+      <c r="X489" s="10"/>
+      <c r="Y489" s="10"/>
+      <c r="Z489" s="10"/>
+      <c r="AA489" s="10"/>
+      <c r="AB489" s="10"/>
+      <c r="AC489" s="10"/>
+      <c r="AD489" s="10"/>
+      <c r="AE489" s="10"/>
+    </row>
+    <row r="490" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A490" s="8">
+        <v>832</v>
+      </c>
+      <c r="B490" s="9">
+        <v>2007</v>
+      </c>
+      <c r="C490" s="10"/>
+      <c r="D490" s="10"/>
+      <c r="E490" s="10"/>
+      <c r="F490" s="10"/>
+      <c r="G490" s="12">
+        <v>994</v>
+      </c>
+      <c r="H490" s="10"/>
+      <c r="I490" s="10"/>
+      <c r="J490" s="10"/>
+      <c r="K490" s="10"/>
+      <c r="L490" s="10"/>
+      <c r="M490" s="10"/>
+      <c r="N490" s="10"/>
+      <c r="O490" s="10"/>
+      <c r="P490" s="10"/>
+      <c r="Q490" s="10"/>
+      <c r="R490" s="10"/>
+      <c r="S490" s="10"/>
+      <c r="T490" s="10"/>
+      <c r="U490" s="10"/>
+      <c r="V490" s="10"/>
+      <c r="W490" s="10"/>
+      <c r="X490" s="10"/>
+      <c r="Y490" s="10"/>
+      <c r="Z490" s="10"/>
+      <c r="AA490" s="10"/>
+      <c r="AB490" s="10"/>
+      <c r="AC490" s="10"/>
+      <c r="AD490" s="10"/>
+      <c r="AE490" s="10"/>
+    </row>
+    <row r="491" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A491" s="8">
+        <v>834</v>
+      </c>
+      <c r="B491" s="9">
+        <v>2007</v>
+      </c>
+      <c r="C491" s="10"/>
+      <c r="D491" s="10"/>
+      <c r="E491" s="10"/>
+      <c r="F491" s="10"/>
+      <c r="G491" s="10">
+        <v>995</v>
+      </c>
+      <c r="H491" s="10"/>
+      <c r="I491" s="10"/>
+      <c r="J491" s="10"/>
+      <c r="K491" s="10"/>
+      <c r="L491" s="10"/>
+      <c r="M491" s="10"/>
+      <c r="N491" s="10"/>
+      <c r="O491" s="10"/>
+      <c r="P491" s="10"/>
+      <c r="Q491" s="10"/>
+      <c r="R491" s="10"/>
+      <c r="S491" s="10"/>
+      <c r="T491" s="10"/>
+      <c r="U491" s="10"/>
+      <c r="V491" s="10"/>
+      <c r="W491" s="10"/>
+      <c r="X491" s="10"/>
+      <c r="Y491" s="10"/>
+      <c r="Z491" s="10"/>
+      <c r="AA491" s="10"/>
+      <c r="AB491" s="10"/>
+      <c r="AC491" s="10"/>
+      <c r="AD491" s="10"/>
+      <c r="AE491" s="10"/>
+    </row>
+    <row r="492" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A492" s="8">
+        <v>943</v>
+      </c>
+      <c r="B492" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C492" s="10"/>
+      <c r="D492" s="10"/>
+      <c r="E492" s="10"/>
+      <c r="F492" s="10"/>
+      <c r="G492" s="10">
+        <v>996</v>
+      </c>
+      <c r="H492" s="10"/>
+      <c r="I492" s="10"/>
+      <c r="J492" s="10"/>
+      <c r="K492" s="10"/>
+      <c r="L492" s="10"/>
+      <c r="M492" s="10"/>
+      <c r="N492" s="10"/>
+      <c r="O492" s="10"/>
+      <c r="P492" s="10"/>
+      <c r="Q492" s="10"/>
+      <c r="R492" s="10"/>
+      <c r="S492" s="10"/>
+      <c r="T492" s="10"/>
+      <c r="U492" s="10"/>
+      <c r="V492" s="10"/>
+      <c r="W492" s="10"/>
+      <c r="X492" s="10"/>
+      <c r="Y492" s="10"/>
+      <c r="Z492" s="10"/>
+      <c r="AA492" s="10"/>
+      <c r="AB492" s="10"/>
+      <c r="AC492" s="10"/>
+      <c r="AD492" s="10"/>
+      <c r="AE492" s="10"/>
+    </row>
+    <row r="493" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A493" s="8">
+        <v>946</v>
+      </c>
+      <c r="B493" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C493" s="10"/>
+      <c r="D493" s="10"/>
+      <c r="E493" s="10"/>
+      <c r="F493" s="10"/>
+      <c r="G493" s="10">
+        <v>997</v>
+      </c>
+      <c r="H493" s="10"/>
+      <c r="I493" s="10"/>
+      <c r="J493" s="10"/>
+      <c r="K493" s="10"/>
+      <c r="L493" s="10"/>
+      <c r="M493" s="10"/>
+      <c r="N493" s="10"/>
+      <c r="O493" s="10"/>
+      <c r="P493" s="10"/>
+      <c r="Q493" s="10"/>
+      <c r="R493" s="10"/>
+      <c r="S493" s="10"/>
+      <c r="T493" s="10"/>
+      <c r="U493" s="10"/>
+      <c r="V493" s="10"/>
+      <c r="W493" s="10"/>
+      <c r="X493" s="10"/>
+      <c r="Y493" s="10"/>
+      <c r="Z493" s="10"/>
+      <c r="AA493" s="10"/>
+      <c r="AB493" s="10"/>
+      <c r="AC493" s="10"/>
+      <c r="AD493" s="10"/>
+      <c r="AE493" s="10"/>
+    </row>
+    <row r="494" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A494" s="8">
+        <v>1016</v>
+      </c>
+      <c r="B494" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C494" s="10"/>
+      <c r="D494" s="10"/>
+      <c r="E494" s="10"/>
+      <c r="F494" s="10"/>
+      <c r="G494" s="10">
+        <v>998</v>
+      </c>
+      <c r="H494" s="10"/>
+      <c r="I494" s="10"/>
+      <c r="J494" s="10"/>
+      <c r="K494" s="10"/>
+      <c r="L494" s="10"/>
+      <c r="M494" s="10"/>
+      <c r="N494" s="10"/>
+      <c r="O494" s="10"/>
+      <c r="P494" s="10"/>
+      <c r="Q494" s="10"/>
+      <c r="R494" s="10"/>
+      <c r="S494" s="10"/>
+      <c r="T494" s="10"/>
+      <c r="U494" s="10"/>
+      <c r="V494" s="10"/>
+      <c r="W494" s="10"/>
+      <c r="X494" s="10"/>
+      <c r="Y494" s="10"/>
+      <c r="Z494" s="10"/>
+      <c r="AA494" s="10"/>
+      <c r="AB494" s="10"/>
+      <c r="AC494" s="10"/>
+      <c r="AD494" s="10"/>
+      <c r="AE494" s="10"/>
+    </row>
+    <row r="495" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A495" s="8">
+        <v>1018</v>
+      </c>
+      <c r="B495" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C495" s="10"/>
+      <c r="D495" s="10"/>
+      <c r="E495" s="10"/>
+      <c r="F495" s="10"/>
+      <c r="G495" s="10">
+        <v>999</v>
+      </c>
+      <c r="H495" s="10"/>
+      <c r="I495" s="10"/>
+      <c r="J495" s="10"/>
+      <c r="K495" s="10"/>
+      <c r="L495" s="10"/>
+      <c r="M495" s="10"/>
+      <c r="N495" s="10"/>
+      <c r="O495" s="10"/>
+      <c r="P495" s="10"/>
+      <c r="Q495" s="10"/>
+      <c r="R495" s="10"/>
+      <c r="S495" s="10"/>
+      <c r="T495" s="10"/>
+      <c r="U495" s="10"/>
+      <c r="V495" s="10"/>
+      <c r="W495" s="10"/>
+      <c r="X495" s="10"/>
+      <c r="Y495" s="10"/>
+      <c r="Z495" s="10"/>
+      <c r="AA495" s="10"/>
+      <c r="AB495" s="10"/>
+      <c r="AC495" s="10"/>
+      <c r="AD495" s="10"/>
+      <c r="AE495" s="10"/>
+    </row>
+    <row r="496" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A496" s="8">
+        <v>1021</v>
+      </c>
+      <c r="B496" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C496" s="10"/>
+      <c r="D496" s="10"/>
+      <c r="E496" s="10"/>
+      <c r="F496" s="10"/>
+      <c r="G496" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H496" s="10"/>
+      <c r="I496" s="10"/>
+      <c r="J496" s="10"/>
+      <c r="K496" s="10"/>
+      <c r="L496" s="10"/>
+      <c r="M496" s="10"/>
+      <c r="N496" s="10"/>
+      <c r="O496" s="10"/>
+      <c r="P496" s="10"/>
+      <c r="Q496" s="10"/>
+      <c r="R496" s="10"/>
+      <c r="S496" s="10"/>
+      <c r="T496" s="10"/>
+      <c r="U496" s="10"/>
+      <c r="V496" s="10"/>
+      <c r="W496" s="10"/>
+      <c r="X496" s="10"/>
+      <c r="Y496" s="10"/>
+      <c r="Z496" s="10"/>
+      <c r="AA496" s="10"/>
+      <c r="AB496" s="10"/>
+      <c r="AC496" s="10"/>
+      <c r="AD496" s="10"/>
+      <c r="AE496" s="10"/>
+    </row>
+    <row r="497" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A497" s="8">
+        <v>1038</v>
+      </c>
+      <c r="B497" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C497" s="10"/>
+      <c r="D497" s="10"/>
+      <c r="E497" s="10"/>
+      <c r="F497" s="10"/>
+      <c r="G497" s="10">
+        <v>1001</v>
+      </c>
+      <c r="H497" s="10"/>
+      <c r="I497" s="10"/>
+      <c r="J497" s="10"/>
+      <c r="K497" s="10"/>
+      <c r="L497" s="10"/>
+      <c r="M497" s="10"/>
+      <c r="N497" s="10"/>
+      <c r="O497" s="10"/>
+      <c r="P497" s="10"/>
+      <c r="Q497" s="10"/>
+      <c r="R497" s="10"/>
+      <c r="S497" s="10"/>
+      <c r="T497" s="10"/>
+      <c r="U497" s="10"/>
+      <c r="V497" s="10"/>
+      <c r="W497" s="10"/>
+      <c r="X497" s="10"/>
+      <c r="Y497" s="10"/>
+      <c r="Z497" s="10"/>
+      <c r="AA497" s="10"/>
+      <c r="AB497" s="10"/>
+      <c r="AC497" s="10"/>
+      <c r="AD497" s="10"/>
+      <c r="AE497" s="10"/>
+    </row>
+    <row r="498" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A498" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B498">
+        <v>590</v>
+      </c>
+      <c r="F498" s="11"/>
+      <c r="G498" s="10">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="499" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A499" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B499">
+        <v>600</v>
+      </c>
+      <c r="F499" s="11"/>
+      <c r="G499" s="10">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="500" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A500" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B500">
+        <v>608</v>
+      </c>
+      <c r="F500" s="11"/>
+      <c r="G500" s="10">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="501" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A501" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B501">
+        <v>609</v>
+      </c>
+      <c r="F501" s="11"/>
+      <c r="G501" s="10">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="502" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A502" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B502">
+        <v>612</v>
+      </c>
+      <c r="F502" s="11"/>
+      <c r="G502" s="10">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="503" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A503" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B503">
+        <v>613</v>
+      </c>
+      <c r="F503" s="11"/>
+      <c r="G503" s="10">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="504" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A504" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B504">
+        <v>620</v>
+      </c>
+      <c r="F504" s="11"/>
+      <c r="G504" s="10">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="505" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A505" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B505">
+        <v>621</v>
+      </c>
+      <c r="F505" s="11"/>
+      <c r="G505" s="10">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="506" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A506" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B506">
+        <v>623</v>
+      </c>
+      <c r="F506" s="11"/>
+      <c r="G506" s="10">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="507" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A507" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B507">
+        <v>624</v>
+      </c>
+      <c r="F507" s="11"/>
+      <c r="G507" s="10">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="508" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A508" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B508">
+        <v>631</v>
+      </c>
+      <c r="F508" s="11"/>
+      <c r="G508" s="10">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="509" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A509" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B509">
+        <v>662</v>
+      </c>
+      <c r="F509" s="11"/>
+      <c r="G509" s="10">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="510" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A510" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B510">
+        <v>681</v>
+      </c>
+      <c r="F510" s="11"/>
+      <c r="G510" s="10">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="511" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A511" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B511">
+        <v>684</v>
+      </c>
+      <c r="F511" s="11"/>
+      <c r="G511" s="10">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="512" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A512" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B512">
+        <v>588</v>
+      </c>
+      <c r="F512" s="11"/>
+      <c r="G512" s="12">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A513" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B513">
+        <v>589</v>
+      </c>
+      <c r="F513" s="11"/>
+      <c r="G513" s="13">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A514" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B514">
+        <v>590</v>
+      </c>
+      <c r="F514" s="11"/>
+      <c r="G514" s="10">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A515" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B515">
+        <v>591</v>
+      </c>
+      <c r="F515" s="11"/>
+      <c r="G515" s="12">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A516" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B516">
+        <v>592</v>
+      </c>
+      <c r="F516" s="11"/>
+      <c r="G516" s="13">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A517" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B517">
+        <v>593</v>
+      </c>
+      <c r="F517" s="11"/>
+      <c r="G517" s="10">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A518" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B518">
+        <v>594</v>
+      </c>
+      <c r="F518" s="11"/>
+      <c r="G518" s="10">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A519" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B519">
+        <v>595</v>
+      </c>
+      <c r="F519" s="11"/>
+      <c r="G519" s="12">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A520" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B520">
+        <v>596</v>
+      </c>
+      <c r="F520" s="11"/>
+      <c r="G520" s="13">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A521" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B521">
+        <v>597</v>
+      </c>
+      <c r="F521" s="11"/>
+      <c r="G521" s="10">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A522" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B522">
+        <v>598</v>
+      </c>
+      <c r="F522" s="11"/>
+      <c r="G522" s="10">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A523" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B523">
+        <v>599</v>
+      </c>
+      <c r="F523" s="11"/>
+      <c r="G523" s="10">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A524" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B524">
+        <v>600</v>
+      </c>
+      <c r="F524" s="11"/>
+      <c r="G524" s="10">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A525" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B525">
+        <v>601</v>
+      </c>
+      <c r="F525" s="11"/>
+      <c r="G525" s="10">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A526" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B526">
+        <v>602</v>
+      </c>
+      <c r="F526" s="11"/>
+      <c r="G526" s="10">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A527" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B527">
+        <v>603</v>
+      </c>
+      <c r="F527" s="11"/>
+      <c r="G527" s="10">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A528" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B528">
+        <v>604</v>
+      </c>
+      <c r="F528" s="11"/>
+      <c r="G528" s="10">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A529" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B529">
+        <v>605</v>
+      </c>
+      <c r="F529" s="11"/>
+      <c r="G529" s="10">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A530" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B530">
+        <v>606</v>
+      </c>
+      <c r="F530" s="11"/>
+      <c r="G530" s="10">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A531" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B531">
+        <v>607</v>
+      </c>
+      <c r="F531" s="11"/>
+      <c r="G531" s="10">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A532" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B532">
+        <v>608</v>
+      </c>
+      <c r="F532" s="11"/>
+      <c r="G532" s="10">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A533" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B533">
+        <v>609</v>
+      </c>
+      <c r="F533" s="11"/>
+      <c r="G533" s="10">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A534" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B534">
+        <v>610</v>
+      </c>
+      <c r="F534" s="11"/>
+      <c r="G534" s="10">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A535" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B535">
+        <v>611</v>
+      </c>
+      <c r="F535" s="11"/>
+      <c r="G535" s="10">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A536" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B536">
+        <v>612</v>
+      </c>
+      <c r="F536" s="11"/>
+      <c r="G536" s="10">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A537" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B537">
+        <v>613</v>
+      </c>
+      <c r="F537" s="11"/>
+      <c r="G537" s="12">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A538" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B538">
+        <v>614</v>
+      </c>
+      <c r="F538" s="11"/>
+      <c r="G538" s="13">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A539" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B539">
+        <v>615</v>
+      </c>
+      <c r="F539" s="11"/>
+      <c r="G539" s="10">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A540" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B540">
+        <v>616</v>
+      </c>
+      <c r="F540" s="11"/>
+      <c r="G540" s="12">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A541" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B541">
+        <v>617</v>
+      </c>
+      <c r="F541" s="11"/>
+      <c r="G541" s="13">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A542" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B542">
+        <v>618</v>
+      </c>
+      <c r="F542" s="11"/>
+      <c r="G542" s="10">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A543" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B543">
+        <v>619</v>
+      </c>
+      <c r="F543" s="11"/>
+      <c r="G543" s="10">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A544" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B544">
+        <v>620</v>
+      </c>
+      <c r="F544" s="11"/>
+      <c r="G544" s="10">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A545" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B545">
+        <v>621</v>
+      </c>
+      <c r="F545" s="11"/>
+      <c r="G545" s="10">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A546" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B546">
+        <v>622</v>
+      </c>
+      <c r="F546" s="11"/>
+      <c r="G546" s="10">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A547" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B547">
+        <v>623</v>
+      </c>
+      <c r="F547" s="11"/>
+      <c r="G547" s="10">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A548" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B548">
+        <v>624</v>
+      </c>
+      <c r="F548" s="11"/>
+      <c r="G548" s="10">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A549" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B549">
+        <v>625</v>
+      </c>
+      <c r="F549" s="11"/>
+      <c r="G549" s="10">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A550" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B550">
+        <v>626</v>
+      </c>
+      <c r="F550" s="11"/>
+      <c r="G550" s="10">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A551" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B551">
+        <v>627</v>
+      </c>
+      <c r="F551" s="11"/>
+      <c r="G551" s="10">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A552" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B552">
+        <v>628</v>
+      </c>
+      <c r="F552" s="11"/>
+      <c r="G552" s="10">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A553" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B553">
+        <v>629</v>
+      </c>
+      <c r="F553" s="11"/>
+      <c r="G553" s="10">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A554" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B554">
+        <v>630</v>
+      </c>
+      <c r="F554" s="11"/>
+      <c r="G554" s="10">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A555" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B555">
+        <v>631</v>
+      </c>
+      <c r="F555" s="11"/>
+      <c r="G555" s="10">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A556" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B556">
+        <v>632</v>
+      </c>
+      <c r="F556" s="11"/>
+      <c r="G556" s="10">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A557" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B557">
+        <v>633</v>
+      </c>
+      <c r="F557" s="11"/>
+      <c r="G557" s="10">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A558" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B558">
+        <v>634</v>
+      </c>
+      <c r="F558" s="11"/>
+      <c r="G558" s="10">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A559" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B559">
+        <v>635</v>
+      </c>
+      <c r="F559" s="11"/>
+      <c r="G559" s="10">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A560" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B560">
+        <v>636</v>
+      </c>
+      <c r="F560" s="11"/>
+      <c r="G560" s="10">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="561" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A561" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B561">
+        <v>637</v>
+      </c>
+      <c r="F561" s="11"/>
+      <c r="G561" s="10">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="562" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A562" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B562">
+        <v>638</v>
+      </c>
+      <c r="F562" s="11"/>
+      <c r="G562" s="10">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="563" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>724</v>
+      </c>
+      <c r="G563" s="10">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="564" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>749</v>
+      </c>
+      <c r="G564" s="10">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="565" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>750</v>
+      </c>
+      <c r="G565" s="10">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="566" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>751</v>
+      </c>
+      <c r="G566" s="10">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="567" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>838</v>
+      </c>
+      <c r="G567" s="10">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="568" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>1040</v>
+      </c>
+      <c r="G568" s="10">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="569" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A569" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C569" s="10"/>
+      <c r="D569" s="10"/>
+      <c r="E569" s="10"/>
+      <c r="F569" s="10"/>
+      <c r="G569" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H569" s="10"/>
+      <c r="I569" s="10"/>
+      <c r="J569" s="10"/>
+      <c r="K569" s="10"/>
+      <c r="L569" s="10"/>
+      <c r="M569" s="10"/>
+      <c r="N569" s="10"/>
+      <c r="O569" s="10"/>
+      <c r="P569" s="10"/>
+      <c r="Q569" s="10"/>
+      <c r="R569" s="10"/>
+      <c r="S569" s="10"/>
+      <c r="T569" s="10"/>
+      <c r="U569" s="10"/>
+      <c r="V569" s="10"/>
+      <c r="W569" s="10"/>
+      <c r="X569" s="10"/>
+      <c r="Y569" s="10"/>
+      <c r="Z569" s="10"/>
+      <c r="AA569" s="10"/>
+      <c r="AB569" s="10"/>
+      <c r="AC569" s="10"/>
+      <c r="AD569" s="10"/>
+      <c r="AE569" s="10"/>
+    </row>
+    <row r="570" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A570" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C570" s="10"/>
+      <c r="D570" s="10"/>
+      <c r="E570" s="10"/>
+      <c r="F570" s="10"/>
+      <c r="G570" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H570" s="10"/>
+      <c r="I570" s="10"/>
+      <c r="J570" s="10"/>
+      <c r="K570" s="10"/>
+      <c r="L570" s="10"/>
+      <c r="M570" s="10"/>
+      <c r="N570" s="10"/>
+      <c r="O570" s="10"/>
+      <c r="P570" s="10"/>
+      <c r="Q570" s="10"/>
+      <c r="R570" s="10"/>
+      <c r="S570" s="10"/>
+      <c r="T570" s="10"/>
+      <c r="U570" s="10"/>
+      <c r="V570" s="10"/>
+      <c r="W570" s="10"/>
+      <c r="X570" s="10"/>
+      <c r="Y570" s="10"/>
+      <c r="Z570" s="10"/>
+      <c r="AA570" s="10"/>
+      <c r="AB570" s="10"/>
+      <c r="AC570" s="10"/>
+      <c r="AD570" s="10"/>
+      <c r="AE570" s="10"/>
+    </row>
+    <row r="571" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A571" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C571" s="10"/>
+      <c r="D571" s="10"/>
+      <c r="E571" s="10"/>
+      <c r="F571" s="10"/>
+      <c r="G571" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H571" s="10"/>
+      <c r="I571" s="10"/>
+      <c r="J571" s="10"/>
+      <c r="K571" s="10"/>
+      <c r="L571" s="10"/>
+      <c r="M571" s="10"/>
+      <c r="N571" s="10"/>
+      <c r="O571" s="10"/>
+      <c r="P571" s="10"/>
+      <c r="Q571" s="10"/>
+      <c r="R571" s="10"/>
+      <c r="S571" s="10"/>
+      <c r="T571" s="10"/>
+      <c r="U571" s="10"/>
+      <c r="V571" s="10"/>
+      <c r="W571" s="10"/>
+      <c r="X571" s="10"/>
+      <c r="Y571" s="10"/>
+      <c r="Z571" s="10"/>
+      <c r="AA571" s="10"/>
+      <c r="AB571" s="10"/>
+      <c r="AC571" s="10"/>
+      <c r="AD571" s="10"/>
+      <c r="AE571" s="10"/>
+    </row>
+    <row r="572" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A572" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C572" s="10"/>
+      <c r="D572" s="10"/>
+      <c r="E572" s="10"/>
+      <c r="F572" s="10"/>
+      <c r="G572" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H572" s="10"/>
+      <c r="I572" s="10"/>
+      <c r="J572" s="10"/>
+      <c r="K572" s="10"/>
+      <c r="L572" s="10"/>
+      <c r="M572" s="10"/>
+      <c r="N572" s="10"/>
+      <c r="O572" s="10"/>
+      <c r="P572" s="10"/>
+      <c r="Q572" s="10"/>
+      <c r="R572" s="10"/>
+      <c r="S572" s="10"/>
+      <c r="T572" s="10"/>
+      <c r="U572" s="10"/>
+      <c r="V572" s="10"/>
+      <c r="W572" s="10"/>
+      <c r="X572" s="10"/>
+      <c r="Y572" s="10"/>
+      <c r="Z572" s="10"/>
+      <c r="AA572" s="10"/>
+      <c r="AB572" s="10"/>
+      <c r="AC572" s="10"/>
+      <c r="AD572" s="10"/>
+      <c r="AE572" s="10"/>
+    </row>
+    <row r="573" spans="1:31" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A573" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C573" s="10"/>
+      <c r="D573" s="10"/>
+      <c r="E573" s="10"/>
+      <c r="F573" s="10"/>
+      <c r="G573" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="H573" s="10"/>
+      <c r="I573" s="10"/>
+      <c r="J573" s="10"/>
+      <c r="K573" s="10"/>
+      <c r="L573" s="10"/>
+      <c r="M573" s="10"/>
+      <c r="N573" s="10"/>
+      <c r="O573" s="10"/>
+      <c r="P573" s="10"/>
+      <c r="Q573" s="10"/>
+      <c r="R573" s="10"/>
+      <c r="S573" s="10"/>
+      <c r="T573" s="10"/>
+      <c r="U573" s="10"/>
+      <c r="V573" s="10"/>
+      <c r="W573" s="10"/>
+      <c r="X573" s="10"/>
+      <c r="Y573" s="10"/>
+      <c r="Z573" s="10"/>
+      <c r="AA573" s="10"/>
+      <c r="AB573" s="10"/>
+      <c r="AC573" s="10"/>
+      <c r="AD573" s="10"/>
+      <c r="AE573" s="10"/>
+    </row>
+    <row r="574" spans="1:31" ht="18" x14ac:dyDescent="0.2">
+      <c r="A574" s="5"/>
+      <c r="F574" s="11"/>
+      <c r="G574" s="10"/>
+    </row>
+    <row r="575" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="G575" s="10"/>
+    </row>
+    <row r="576" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="G576" s="10"/>
+    </row>
+    <row r="577" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G577" s="10"/>
+    </row>
+    <row r="578" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G578" s="10"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:G577">
+    <sortCondition ref="G2:G577"/>
+  </sortState>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>